--- a/static/files/配送单模板.xlsx
+++ b/static/files/配送单模板.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="16935" windowHeight="5370"/>
+    <workbookView xWindow="400" yWindow="580" windowWidth="22300" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +48,6 @@
     <t>内容</t>
   </si>
   <si>
-    <t>自由拼：澳洲谷饲精修臀腿肉芯400g 数量：1.00</t>
-  </si>
-  <si>
     <t>自由拼：荷美尔Hormel 经典美式火腿片(原味) 250g（北京） 数量：2.00  ， 荷美尔Hormel 经典美式火腿片（烟熏）250g（北京） 数量：1.00  ， 荷美尔Hormel 经典美式热狗肠(袋装) 250g（北京） 数量：1.00  ， 荷美尔Hormel 经典一口香热狗肠（弹脆）250g（北京） 数量：1.00</t>
   </si>
   <si>
@@ -116,6 +118,32 @@
   </si>
   <si>
     <t>自由拼：思念猪猪包臻品奶黄300g（买一送一） 数量：1.00  ， 湾仔码头水晶汤圆（抹茶）300g 数量：2.00  ， 荷美尔Hormel 经典一口香热狗肠（弹脆）250g（北京） 数量：1.00  ， 湾仔码头水晶汤圆紫薯300g（北京） 数量：2.00</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自由拼：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南非柠檬6个（猫超）北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 数量：1.00</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,19 +417,10 @@
     <xf numFmtId="176" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,18 +432,30 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,72 +757,72 @@
   <dimension ref="B1:N63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:N4"/>
+      <selection activeCell="H6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="0.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="0.5" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+    <row r="1" spans="2:14" ht="7.5" customHeight="1"/>
+    <row r="2" spans="2:14" ht="7.5" customHeight="1">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="10" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="2:14" ht="26.25" customHeight="1">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" ht="35.25" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,25 +832,25 @@
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" ht="30.75" customHeight="1">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2">
         <v>7326555</v>
       </c>
@@ -829,25 +860,25 @@
       <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="2">
         <v>1</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="14">
         <v>1</v>
       </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="2:14" ht="51" customHeight="1">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2">
         <v>7331054</v>
       </c>
@@ -857,25 +888,25 @@
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="2">
         <v>6</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="14">
         <v>2</v>
       </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="2:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" ht="60.75" customHeight="1">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2">
         <v>7331067</v>
       </c>
@@ -885,25 +916,25 @@
       <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="H8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="14">
         <v>3</v>
       </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="2:14" ht="30.75" customHeight="1">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2">
         <v>7332062</v>
       </c>
@@ -913,25 +944,25 @@
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="14">
         <v>4</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="2:14" ht="30" customHeight="1">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2">
         <v>7333511</v>
       </c>
@@ -941,25 +972,25 @@
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2">
         <v>2</v>
       </c>
-      <c r="L10" s="4">
-        <v>5</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="L10" s="14">
+        <v>5</v>
+      </c>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="2:14" ht="30" customHeight="1">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2">
         <v>7333588</v>
       </c>
@@ -969,25 +1000,25 @@
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="14">
         <v>6</v>
       </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="30.75" customHeight="1">
+      <c r="B12" s="4">
         <v>12</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2">
         <v>7334490</v>
       </c>
@@ -997,25 +1028,25 @@
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="L12" s="4">
-        <v>7</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="L12" s="14">
+        <v>7</v>
+      </c>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="2:14" ht="30" customHeight="1">
+      <c r="B13" s="4">
         <v>14</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2">
         <v>7334773</v>
       </c>
@@ -1025,25 +1056,25 @@
       <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="2">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="14">
         <v>8</v>
       </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="40.5" customHeight="1">
+      <c r="B14" s="4">
         <v>17</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2">
         <v>7335027</v>
       </c>
@@ -1053,25 +1084,25 @@
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="2">
         <v>4</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="14">
         <v>9</v>
       </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" ht="30" customHeight="1">
+      <c r="B15" s="4">
         <v>19</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2">
         <v>7335126</v>
       </c>
@@ -1081,25 +1112,25 @@
       <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="14">
         <v>10</v>
       </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="40.5" customHeight="1">
+      <c r="B16" s="4">
         <v>20</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2">
         <v>7335127</v>
       </c>
@@ -1109,25 +1140,25 @@
       <c r="G16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="2">
         <v>4</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="14">
         <v>11</v>
       </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:13" ht="30" customHeight="1">
+      <c r="B17" s="4">
         <v>21</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2">
         <v>7335150</v>
       </c>
@@ -1137,25 +1168,25 @@
       <c r="G17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="14">
         <v>12</v>
       </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:13" ht="30.75" customHeight="1">
+      <c r="B18" s="4">
         <v>24</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2">
         <v>7335311</v>
       </c>
@@ -1165,25 +1196,25 @@
       <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="2">
         <v>2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="14">
         <v>13</v>
       </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13" ht="40.5" customHeight="1">
+      <c r="B19" s="4">
         <v>27</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2">
         <v>7335403</v>
       </c>
@@ -1193,25 +1224,25 @@
       <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="H19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="2">
         <v>4</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="14">
         <v>14</v>
       </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:13" ht="30" customHeight="1">
+      <c r="B20" s="4">
         <v>28</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2">
         <v>7335429</v>
       </c>
@@ -1221,25 +1252,25 @@
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="2">
         <v>2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="14">
         <v>15</v>
       </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13" ht="30" customHeight="1">
+      <c r="B21" s="4">
         <v>29</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2">
         <v>7335520</v>
       </c>
@@ -1249,25 +1280,25 @@
       <c r="G21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="H21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="2">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="14">
         <v>16</v>
       </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:13" ht="30.75" customHeight="1">
+      <c r="B22" s="4">
         <v>30</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2">
         <v>7335577</v>
       </c>
@@ -1277,25 +1308,25 @@
       <c r="G22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="2">
         <v>4</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="14">
         <v>17</v>
       </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:13" ht="51" customHeight="1">
+      <c r="B23" s="4">
         <v>32</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2">
         <v>7335622</v>
       </c>
@@ -1305,25 +1336,25 @@
       <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="2">
         <v>5</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="14">
         <v>18</v>
       </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:13" ht="30" customHeight="1">
+      <c r="B24" s="4">
         <v>35</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2">
         <v>7335808</v>
       </c>
@@ -1333,25 +1364,25 @@
       <c r="G24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="H24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="2">
         <v>2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="14">
         <v>19</v>
       </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="2:13" ht="40.5" customHeight="1">
+      <c r="B25" s="4">
         <v>36</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2">
         <v>7335846</v>
       </c>
@@ -1361,25 +1392,25 @@
       <c r="G25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="H25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="2">
         <v>5</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="14">
         <v>20</v>
       </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:13" ht="30" customHeight="1">
+      <c r="B26" s="4">
         <v>37</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2">
         <v>7335866</v>
       </c>
@@ -1389,25 +1420,25 @@
       <c r="G26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="H26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="2">
         <v>5</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="14">
         <v>21</v>
       </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:13" ht="30.75" customHeight="1">
+      <c r="B27" s="4">
         <v>38</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2">
         <v>7335867</v>
       </c>
@@ -1417,304 +1448,326 @@
       <c r="G27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="H27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="2">
         <v>1</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="14">
         <v>22</v>
       </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="4">
         <v>39</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="4">
         <v>40</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="4">
         <v>41</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="4">
         <v>42</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="4">
         <v>43</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="4">
         <v>44</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="4">
         <v>45</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="4">
         <v>46</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="4">
         <v>47</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="4">
         <v>48</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="4">
         <v>49</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="4">
         <v>50</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="4">
         <v>51</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="4">
         <v>52</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="4">
         <v>53</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="4">
         <v>54</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="4">
         <v>55</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="4">
         <v>56</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="4">
         <v>57</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="4">
         <v>58</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="4">
         <v>59</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="4">
         <v>60</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="4">
         <v>61</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="4">
         <v>62</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="4">
         <v>63</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="4">
         <v>64</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="4">
         <v>65</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="4">
         <v>66</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="4">
         <v>67</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="4">
         <v>68</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="4">
         <v>69</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="4">
         <v>70</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="4">
         <v>71</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="4">
         <v>72</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="4">
         <v>73</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="4">
         <v>74</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
@@ -1739,62 +1792,45 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>